--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2125481.645628253</v>
+        <v>2122464.055227316</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>311.4336109949004</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>303.9554516756504</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4120358099645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.3612404416284</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.0256229340443</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>107.2096867421727</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.5603804390637</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>386.3167686901454</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>67.29511052354185</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>145.4249611444376</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5678108961688</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.34769566476333</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>45.63891597908086</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>159.2830655961215</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2287,16 +2287,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.09438427837645</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>140.5678108961707</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>33.08927902528015</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.54139430664144</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.676371264096</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,13 +2843,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>89.6881270183009</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819412</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4622157025495</v>
+        <v>80.37630218413064</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>64.32381826160521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3715,7 +3715,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>86.47365081503108</v>
+        <v>146.8925015883704</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>8.576299198037727</v>
+        <v>194.6193727018219</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>907.3941227570563</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>204.0596212327002</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2302.336936304455</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1933.374419364044</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.108720757293</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1189.320468159049</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304455</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2302.336936304455</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.8181649141598</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8181649141598</v>
+        <v>315.487458950312</v>
       </c>
       <c r="D10" t="n">
-        <v>551.8181649141598</v>
+        <v>315.487458950312</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141598</v>
+        <v>167.5743653679189</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>167.5743653679189</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>551.8181649141598</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>551.8181649141598</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X10" t="n">
-        <v>551.8181649141598</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.8181649141598</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.1357418247858</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>964.1357418247858</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
         <v>822.1480540508779</v>
@@ -5194,19 +5194,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247858</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,16 +5291,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,16 +5528,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
         <v>1302.911127126629</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.9270045185177</v>
+        <v>100.5986022327741</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1141.821241904895</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>887.1367536990085</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W19" t="n">
-        <v>597.7195836620479</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X19" t="n">
-        <v>597.7195836620479</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y19" t="n">
-        <v>376.9270045185177</v>
+        <v>282.2470670630138</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3721.107993746784</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="C22" t="n">
-        <v>3721.107993746784</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>3721.107993746784</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746784</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746784</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>3941.900572890314</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>3941.900572890314</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>3941.900572890314</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="Y22" t="n">
-        <v>3721.107993746784</v>
+        <v>1133.156678913841</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
         <v>4860.854573014292</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4184.086356507267</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>4184.086356507267</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507267</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>4184.086356507267</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>4184.086356507267</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>4184.086356507267</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X25" t="n">
-        <v>4184.086356507267</v>
+        <v>446.729020889808</v>
       </c>
       <c r="Y25" t="n">
-        <v>4184.086356507267</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324571</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3226148324571</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>420.3226148324571</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>420.3226148324571</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324571</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324571</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324571</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="29">
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4744.160657054477</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843983</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057541</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851654</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,25 +6716,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6765,16 +6765,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4344.345589535379</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C34" t="n">
-        <v>4187.313048421693</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>4037.196409009357</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4525.994054365623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4525.994054365623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>4525.994054365623</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>4525.994054365623</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y34" t="n">
-        <v>4525.994054365623</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>376.9270045185177</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
         <v>1247.466478653857</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7363,19 +7363,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7427,31 +7427,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.2185435662825</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2823606383756</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.64913843807</v>
+        <v>726.5508488921146</v>
       </c>
       <c r="X43" t="n">
-        <v>983.6595875400524</v>
+        <v>726.5508488921146</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.8670083965222</v>
+        <v>505.7582697485844</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,7 +7646,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483981</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3738.865306974908</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>3738.865306974908</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>3738.865306974908</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>3738.865306974908</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4028.282477011868</v>
+        <v>1013.202406820125</v>
       </c>
       <c r="W46" t="n">
-        <v>3738.865306974908</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="X46" t="n">
-        <v>3738.865306974908</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y46" t="n">
-        <v>3738.865306974908</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10431,22 +10431,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.04766212204359</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>142.9448419136024</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>163.8991254338645</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>240.5984364194965</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>7.963755502506359</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>158.0432590454515</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>145.6695415024067</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>185.4953743268146</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.9521741567361</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.03328412494116</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>196.8348713182901</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>11.78460539607829</v>
+        <v>86.8705189144972</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>161.385837127432</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709125</v>
       </c>
     </row>
     <row r="38">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>200.0493475215599</v>
+        <v>139.6304967482206</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>243.5613441257903</v>
+        <v>57.51827062200613</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26497,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274983.5063613178</v>
+        <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314984.3728532263</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>314984.3728532264</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-103969.6324340151</v>
+        <v>-104303.8014011451</v>
       </c>
       <c r="F6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757515</v>
       </c>
       <c r="G6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757515</v>
       </c>
       <c r="H6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757511</v>
       </c>
       <c r="I6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="J6" t="n">
-        <v>244767.184850288</v>
+        <v>244433.0158831585</v>
       </c>
       <c r="K6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="L6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="M6" t="n">
-        <v>286389.3888090437</v>
+        <v>286055.2198419141</v>
       </c>
       <c r="N6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757511</v>
       </c>
       <c r="O6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="P6" t="n">
-        <v>421190.404042881</v>
+        <v>420856.2350757512</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.30023066858018</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>102.9205940660611</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>88.92063380034929</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.70821872943628</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>299.6663589995388</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>8.72149380291404</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55927705156603</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>287.1315288463124</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>100.0146917355091</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>106.7126821793904</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2.53354608527818e-12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122464.055227316</v>
+        <v>2197993.724892122</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.9463874884739</v>
       </c>
       <c r="F2" t="n">
-        <v>303.9554516756504</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.5103304121437</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.3612404416284</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>300.8672670975499</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>107.2096867421727</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>4.106465005443117</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>157.2029797327303</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>82.5995718321566</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>67.29511052354185</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.9907298067895</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.6663772687435</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>143.2925104849749</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.34769566476333</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>159.2830655961215</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>157.2425576766698</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>12.25082275066729</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.08927902528015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>140.0424879565129</v>
       </c>
       <c r="X28" t="n">
-        <v>133.676371264096</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>89.6881270183009</v>
+        <v>155.4299165252756</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>80.37630218413064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.1706059301405</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>28.01945746894998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>271.1752195105216</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>14.73664328357123</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>146.8925015883704</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>194.6193727018219</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.127218649458</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,61 +4543,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.182375355301</v>
+        <v>2053.247973680503</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.182375355301</v>
+        <v>2053.247973680503</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.182375355301</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>907.3941227570563</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
         <v>2443.387305656314</v>
@@ -4607,10 +4609,10 @@
         <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>2053.247973680503</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>723.981039756492</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>555.0448568285851</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.981039756492</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.981039756492</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>723.981039756492</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>723.981039756492</v>
       </c>
       <c r="U7" t="n">
-        <v>195.2500315327868</v>
+        <v>723.981039756492</v>
       </c>
       <c r="V7" t="n">
-        <v>195.2500315327868</v>
+        <v>723.981039756492</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>723.981039756492</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>723.981039756492</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>723.981039756492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1880.609977906363</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1880.609977906363</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1522.344279299612</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.509002921313</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782189</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>315.487458950312</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>315.487458950312</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>167.5743653679189</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>167.5743653679189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>474.4790046491578</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5026,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1204.339775939179</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>980.5543607286844</v>
       </c>
       <c r="U16" t="n">
-        <v>1354.17636097712</v>
+        <v>691.4257219422426</v>
       </c>
       <c r="V16" t="n">
-        <v>1354.17636097712</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="W16" t="n">
-        <v>1064.759190940159</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X16" t="n">
-        <v>836.769640042142</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5595,19 +5597,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5986022327741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5673,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065439</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630138</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,10 +5834,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5911,10 +5913,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.156678913841</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.156678913841</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3055067228584</v>
+        <v>985.4001231459587</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>816.4639402180518</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>666.347300805716</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>518.4342072233229</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>371.5442597254125</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>674.7185717878253</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>446.729020889808</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.3055067228584</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.423997082767</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>963.3973594422661</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.6047802987359</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.6878657662453</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>1008.118460638033</v>
+        <v>1141.996344791358</v>
       </c>
       <c r="X31" t="n">
-        <v>780.1289097400152</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.336330596485</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.9398668627127</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>818.7109577742984</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.5883316929525</v>
+        <v>597.9183786307683</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>420.322614832458</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>420.322614832458</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>420.322614832458</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>272.4095212500649</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>125.5195737521546</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441654</v>
+        <v>420.322614832458</v>
       </c>
       <c r="X37" t="n">
-        <v>237.776412546148</v>
+        <v>420.322614832458</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>420.322614832458</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>4094.296631519492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3925.360448591585</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>4275.945096349731</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>4275.945096349731</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>4275.945096349731</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>4275.945096349731</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>4275.945096349731</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>505.7582697485844</v>
+        <v>579.0685056491552</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7582697485844</v>
+        <v>410.1323227212483</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>260.0156833089126</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>112.1025897265195</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W43" t="n">
-        <v>726.5508488921146</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>726.5508488921146</v>
+        <v>981.5095496229251</v>
       </c>
       <c r="Y43" t="n">
-        <v>505.7582697485844</v>
+        <v>760.7169704793949</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
         <v>542.1367719529251</v>
@@ -7837,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1013.202406820125</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W46" t="n">
-        <v>723.7852367831648</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X46" t="n">
-        <v>723.7852367831648</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>116.9087390531959</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229571</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>16.25443271485972</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.9448419136024</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>163.8991254338645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.963755502506359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171942</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>154.2427457127103</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.4953743268146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>146.4805103800781</v>
       </c>
       <c r="X28" t="n">
-        <v>92.03328412494116</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>196.8348713182901</v>
+        <v>131.0930818113154</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>86.8705189144972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>90.96703739368752</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>138.4741109944276</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.43092547709125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>15.06213288805571</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>130.68440473936</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>139.6304967482206</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>57.51827062200613</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.978066954208771e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,16 +26432,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26451,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707853</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
+        <v>314569.1583437591</v>
+      </c>
+      <c r="D6" t="n">
         <v>314569.158343759</v>
       </c>
-      <c r="D6" t="n">
-        <v>314569.1583437589</v>
-      </c>
       <c r="E6" t="n">
-        <v>-104303.8014011451</v>
+        <v>-104303.8014011447</v>
       </c>
       <c r="F6" t="n">
+        <v>420856.2350757511</v>
+      </c>
+      <c r="G6" t="n">
+        <v>420856.2350757511</v>
+      </c>
+      <c r="H6" t="n">
+        <v>420856.2350757509</v>
+      </c>
+      <c r="I6" t="n">
+        <v>420856.2350757514</v>
+      </c>
+      <c r="J6" t="n">
+        <v>244433.0158831586</v>
+      </c>
+      <c r="K6" t="n">
+        <v>420856.2350757517</v>
+      </c>
+      <c r="L6" t="n">
+        <v>420856.235075751</v>
+      </c>
+      <c r="M6" t="n">
+        <v>286055.2198419144</v>
+      </c>
+      <c r="N6" t="n">
+        <v>420856.2350757512</v>
+      </c>
+      <c r="O6" t="n">
         <v>420856.2350757515</v>
       </c>
-      <c r="G6" t="n">
-        <v>420856.2350757515</v>
-      </c>
-      <c r="H6" t="n">
-        <v>420856.2350757511</v>
-      </c>
-      <c r="I6" t="n">
-        <v>420856.2350757516</v>
-      </c>
-      <c r="J6" t="n">
-        <v>244433.0158831585</v>
-      </c>
-      <c r="K6" t="n">
-        <v>420856.2350757513</v>
-      </c>
-      <c r="L6" t="n">
-        <v>420856.2350757514</v>
-      </c>
-      <c r="M6" t="n">
-        <v>286055.2198419141</v>
-      </c>
-      <c r="N6" t="n">
-        <v>420856.2350757511</v>
-      </c>
-      <c r="O6" t="n">
-        <v>420856.2350757514</v>
-      </c>
       <c r="P6" t="n">
-        <v>420856.2350757512</v>
+        <v>420856.2350757518</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,16 +26819,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>43.98398258378785</v>
       </c>
       <c r="F2" t="n">
-        <v>102.9205940660611</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>88.92063380034929</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>53.81577452313303</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>299.6663589995388</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.01628494947116</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6290191212929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>224.7273903395314</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>287.1315288463124</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>100.0146917355091</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,7 +28061,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>64.53226852980151</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879393</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>204.92177183827</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734236</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642226</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197993.724892122</v>
+        <v>2190976.710000411</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358072</v>
+        <v>10017056.05358071</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.9463874884739</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>157.2443566923301</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>16.889865504349</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8672670975499</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>105.0839683962668</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.106465005443117</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>157.2029797327303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.9907298067895</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>275.8445683090087</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.6663772687435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>123.6553038066437</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>157.2425576766698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.25082275066729</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>140.0424879565129</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>155.4299165252756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301405</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051994</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>28.01945746894998</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>271.1752195105216</v>
+        <v>234.8620629871508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>14.73664328357123</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D2" t="n">
-        <v>1551.447402037877</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.316407490616</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>837.1179892781315</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2053.247973680503</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C5" t="n">
-        <v>2053.247973680503</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>313.5543804477666</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.247973680503</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>723.981039756492</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>555.0448568285851</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162494</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>210.329818152658</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>723.981039756492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>723.981039756492</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1880.609977906363</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1880.609977906363</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1522.344279299612</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2267.209817970484</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2267.209817970484</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>474.4790046491578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1204.339775939179</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>980.5543607286844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>691.4257219422426</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>436.7412337363557</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>436.7412337363557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>856.6052023434863</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.4001231459587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>816.4639402180518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>666.347300805716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>518.4342072233229</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>371.5442597254125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.048587976198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1141.996344791358</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822487</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307683</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805494</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>272.4095212500649</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5195737521546</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383449</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>420.322614832458</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>420.322614832458</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636254</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4094.296631519492</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C40" t="n">
-        <v>3925.360448591585</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.243809179249</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596856</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4275.945096349731</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="V40" t="n">
-        <v>4275.945096349731</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="W40" t="n">
-        <v>4275.945096349731</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X40" t="n">
-        <v>4275.945096349731</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y40" t="n">
-        <v>4275.945096349731</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491552</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>112.1025897265195</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793949</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1341.503549752619</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9248,19 +9248,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.9087390531959</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>10.67843002758235</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385015923</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>16.25443271485972</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>94.9293495454511</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>64.30500338171942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>154.2427457127103</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>146.4805103800781</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>131.0930818113154</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>90.96703739368752</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4741109944276</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>15.06213288805571</v>
+        <v>51.37528941142659</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>130.68440473936</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.978066954208771e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26453,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871668</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707854</v>
+        <v>-275398.7208707851</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437591</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
         <v>314569.158343759</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011447</v>
+        <v>-105278.3926608664</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757511</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757511</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757509</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831586</v>
+        <v>243458.4246234368</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757517</v>
+        <v>419881.6438160297</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.235075751</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="M6" t="n">
-        <v>286055.2198419144</v>
+        <v>285080.6285821925</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757512</v>
+        <v>419881.6438160294</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757515</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757518</v>
+        <v>419881.6438160295</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="L3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,16 +26819,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.98398258378785</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>59.20396366532771</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1051426060687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>129.7753264758089</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>53.81577452313303</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.48683429008034</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.01628494947116</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.7273903395314</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.468579306131</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>64.53226852980151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35968,19 +35968,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.92177183827</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>482.1033309642226</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190976.710000411</v>
+        <v>2195915.972849442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358071</v>
+        <v>10017056.05358072</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>346.989972397865</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>157.2443566923301</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.74944290141764</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>16.889865504349</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>105.0839683962668</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>154.8229679689706</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>30.60408762095441</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.78026256753518</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.3388661785148</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>275.8445683090087</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.6553038066437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>199.278233440584</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>204.1339593669623</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051994</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>234.8620629871508</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.1179892781315</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>564.8493801884833</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>557.9038794392799</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2538.316407490616</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2284.554622128708</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1953.491734785137</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1600.723079515023</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1227.257321253943</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>837.1179892781315</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>301.7863312341321</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>151.6696918217964</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>711.0685140000211</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>711.0685140000211</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>711.0685140000211</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>711.0685140000211</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544182</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.292345937431</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.504093339187</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>731.5181885495797</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5543804477666</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>357.2197656505683</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>357.2197656505683</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>210.329818152658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060202</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>249.9299350185089</v>
       </c>
     </row>
     <row r="11">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>965.6009052722087</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>965.6009052722087</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.8083261286786</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.8933943850831</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5600,13 +5600,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>856.6052023434863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6177,19 +6177,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,34 +6238,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6372,16 +6372,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.550022230249</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.550022230249</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.503549752619</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1292.720352005415</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1261.681863500174</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1261.681863500174</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>972.2646934632137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7593,22 +7593,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7642,7 +7642,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7833,19 +7833,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028587</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.08218184441644</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>10.67843002758235</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.879261385015923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.9293495454511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>185.996791168474</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>22.26932761780526</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.6844047393606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>17.41360169142692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.37528941142659</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707851</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437592</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437591</v>
       </c>
       <c r="E6" t="n">
-        <v>-105278.3926608664</v>
+        <v>-104401.2605271168</v>
       </c>
       <c r="F6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.775949779</v>
       </c>
       <c r="G6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.775949779</v>
       </c>
       <c r="H6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497787</v>
       </c>
       <c r="I6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.775949779</v>
       </c>
       <c r="J6" t="n">
-        <v>243458.4246234368</v>
+        <v>244335.556757186</v>
       </c>
       <c r="K6" t="n">
-        <v>419881.6438160297</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="L6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.7759497792</v>
       </c>
       <c r="M6" t="n">
-        <v>285080.6285821925</v>
+        <v>285957.7607159418</v>
       </c>
       <c r="N6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.775949779</v>
       </c>
       <c r="O6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.775949779</v>
       </c>
       <c r="P6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.7759497789</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26758,13 +26758,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66.79419762292997</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>59.20396366532771</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>49.68451974515153</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.7753264758089</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8388043680903</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12.48683429008034</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.9805657311404</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>321.468579306131</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>18.41969662100182</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35968,16 +35968,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36132,7 +36132,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
